--- a/biology/Médecine/André_Moulonguet/André_Moulonguet.xlsx
+++ b/biology/Médecine/André_Moulonguet/André_Moulonguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Moulonguet</t>
+          <t>André_Moulonguet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Moulonguet était un médecin français. Il a exercé la profession d'oto-rhino-laryngologiste aux Hôpitaux de Paris [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Moulonguet était un médecin français. Il a exercé la profession d'oto-rhino-laryngologiste aux Hôpitaux de Paris .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Moulonguet</t>
+          <t>André_Moulonguet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moulonguet a publié plusieurs livres au long de sa carrière, dont un traitant des vertiges en 1927 [2] et un autre traitant sur l'otologie en 1933 [3].
-Il a étudié le fonctionnement du larynx humain en 1952-1953 [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moulonguet a publié plusieurs livres au long de sa carrière, dont un traitant des vertiges en 1927  et un autre traitant sur l'otologie en 1933 .
+Il a étudié le fonctionnement du larynx humain en 1952-1953 .
 </t>
         </is>
       </c>
